--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_206.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_206.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2015810276679842</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.76, 15.8)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[('0:00:00.800000', '0:00:02.880000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+          <t>[('0:00:02.560000', '0:00:04.800000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -528,585 +534,618 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.146875</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'D/b7']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'F']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(55.397573, 60.285374)]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(24.607913, 29.611814)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_116</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2714285714285715</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:7', 'E:7', 'B:7']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2929292929292929</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'C:7', 'G:7', 'D:7']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(52.016417, 59.423582)]</t>
+          <t>[['F', 'Bb', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(22.645827, 29.925283)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:08.158789', '0:00:24.401147')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1478494623655914</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:min', 'A', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_61</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1789473684210526</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G', 'G']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(47.993, 52.587959)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(30.378072, 38.911405)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:24.387324', '0:00:27.452358')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07916666666666666</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.106312292358804</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A']]</t>
+          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(23.528185, 26.29136)]</t>
+          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(33.327006, 37.030589)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:11.960000', '0:00:16.400000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:22.040000', '0:00:28.660000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09250474383301707</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A', 'E', 'B'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[['G:maj', 'D:maj', 'A:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(39.724104, 43.706326)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:35.080113', '0:00:43.578616'), ('0:00:32.920657', '0:00:39.410634')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:03.560000', '0:01:10.960000'), ('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_215</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb', 'C', 'Bb']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(70.041252, 72.490957)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(3.779614, 7.239387)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.58, 22.66)]</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>mid</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>schubert-winterreise_128</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1119909502262443</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+      <c r="D10" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(77.72, 95.68)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(61.683832, 71.056785)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08217799642218247</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'F:min', 'G:hdim7', 'C:7', 'F:min'], ['F:min', 'G:hdim7', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min'], ['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(51.29, 58.23), (52.68, 59.63)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(15.1, 22.28), (11.0, 17.9)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'A/3', 'B:min7'], ['B:min7/4', 'E:7', 'A'], ['A:7', 'D', 'A/3'], ['A', 'D', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['A:min7/C', 'D:7', 'G:maj'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(14.409, 17.913), (47.371, 50.945), (38.689, 45.633), (13.527, 17.058)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(64.32, 66.92), (65.76, 71.94), (58.56, 62.9), (18.26, 24.82)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1101973684210526</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(19.000294, 29.309954)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(9.738333, 15.380782)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06648351648351648</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C', 'G']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(54.76, 64.34)]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(58.265237, 68.830317)]</t>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(45.72, 49.9)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(13.74, 16.3)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1507867132867133</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'F:min', 'C']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.172266, 30.209183)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(246.38, 247.44)]</t>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1079943899018233</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'Bb', 'Eb', 'Eb/5']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:min', 'A', 'D', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(79.539977, 88.735079)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(47.993, 52.587959)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
